--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\crm_lara8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15F9B3-AA87-478F-8532-C7D7890B68BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934852BC-0358-4C38-978D-AC1193C409AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3468" yWindow="-11124" windowWidth="17280" windowHeight="9072" xr2:uid="{DABE5B3D-ACF2-4D84-A097-64EA3129E9B7}"/>
+    <workbookView xWindow="3816" yWindow="-10776" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{DABE5B3D-ACF2-4D84-A097-64EA3129E9B7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="base" sheetId="1" r:id="rId1"/>
+    <sheet name="image_storage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>composer create-project laravel/laravel="8.0" crm_lara8</t>
   </si>
@@ -62,6 +63,12 @@
   </si>
   <si>
     <t>INSTALL AUTH ::::</t>
+  </si>
+  <si>
+    <t>LINK TO STORAGE::::</t>
+  </si>
+  <si>
+    <t>php artisan storage:link</t>
   </si>
 </sst>
 </file>
@@ -128,6 +135,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>115337</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>169722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE02E3E6-52BF-4BE8-A218-BC924304069F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7430537" cy="1267002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B438415-1C4E-4835-8378-72F1CD3BFE8D}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +566,34 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E99F3A-2DDF-4BBD-B6E0-E3DB2E8128EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>